--- a/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/pcc/summary_selection_rate.xlsx
+++ b/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/pcc/summary_selection_rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\parameter_optimization_sigma_lambda\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9692D5D-BF1E-40C7-9EF2-4164F16ABF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE99345-58A7-405F-BD6F-07DD3495BED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,126 +116,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,19 +420,19 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="125">
+      <c r="C2">
         <v>0.05</v>
       </c>
-      <c r="D2" s="125">
+      <c r="D2">
         <v>0.1</v>
       </c>
-      <c r="E2" s="125">
+      <c r="E2">
         <v>0.15</v>
       </c>
-      <c r="F2" s="125">
+      <c r="F2">
         <v>0.2</v>
       </c>
-      <c r="G2" s="125">
+      <c r="G2">
         <v>0.3</v>
       </c>
     </row>
@@ -563,19 +443,19 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="125">
+      <c r="C3">
         <v>79.209249214958604</v>
       </c>
-      <c r="D3" s="125">
+      <c r="D3">
         <v>61.869704755231453</v>
       </c>
-      <c r="E3" s="125">
+      <c r="E3">
         <v>54.734994824061339</v>
       </c>
-      <c r="F3" s="125">
+      <c r="F3">
         <v>61.775545924561051</v>
       </c>
-      <c r="G3" s="125">
+      <c r="G3">
         <v>52.115923724830367</v>
       </c>
     </row>
@@ -584,19 +464,19 @@
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C4" s="125">
+      <c r="C4">
         <v>80.17563589073724</v>
       </c>
-      <c r="D4" s="125">
+      <c r="D4">
         <v>69.334901974353883</v>
       </c>
-      <c r="E4" s="125">
+      <c r="E4">
         <v>89.865241048797998</v>
       </c>
-      <c r="F4" s="125">
+      <c r="F4">
         <v>91.082050882793098</v>
       </c>
-      <c r="G4" s="125">
+      <c r="G4">
         <v>86.922776148582614</v>
       </c>
     </row>
@@ -605,19 +485,19 @@
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5">
         <v>79.058890359489837</v>
       </c>
-      <c r="D5" s="125">
+      <c r="D5">
         <v>84.42951928649903</v>
       </c>
-      <c r="E5" s="125">
+      <c r="E5">
         <v>91.292369887859465</v>
       </c>
-      <c r="F5" s="125">
+      <c r="F5">
         <v>90.942551406154024</v>
       </c>
-      <c r="G5" s="125">
+      <c r="G5">
         <v>87.362283987462419</v>
       </c>
     </row>
@@ -626,114 +506,105 @@
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C6" s="125">
+      <c r="C6">
         <v>80.100946663321764</v>
       </c>
-      <c r="D6" s="125">
+      <c r="D6">
         <v>90.76182319916262</v>
       </c>
-      <c r="E6" s="125">
+      <c r="E6">
         <v>91.085649529840211</v>
       </c>
-      <c r="F6" s="125">
+      <c r="F6">
         <v>90.839874624059604</v>
       </c>
-      <c r="G6" s="125">
+      <c r="G6">
         <v>88.692203219751036</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="125">
+      <c r="B7">
         <v>1E-3</v>
       </c>
-      <c r="C7" s="125">
+      <c r="C7">
         <v>81.049547718117523</v>
       </c>
-      <c r="D7" s="125">
+      <c r="D7">
         <v>92.340435470895059</v>
       </c>
-      <c r="E7" s="125">
+      <c r="E7">
         <v>92.021689922346511</v>
       </c>
-      <c r="F7" s="125">
+      <c r="F7">
         <v>91.75618012843249</v>
       </c>
-      <c r="G7" s="125">
+      <c r="G7">
         <v>84.276190393803844</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="125">
+      <c r="B8">
         <v>0.01</v>
       </c>
-      <c r="C8" s="125">
+      <c r="C8">
         <v>89.927277340922785</v>
       </c>
-      <c r="D8" s="125">
+      <c r="D8">
         <v>93.10718950855977</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E8">
         <v>92.275434908606471</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F8">
         <v>89.310316986594458</v>
       </c>
-      <c r="G8" s="125">
+      <c r="G8">
         <v>86.685230841097251</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="125">
+      <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C9" s="125">
+      <c r="C9">
         <v>93.034541821296031</v>
       </c>
-      <c r="D9" s="125">
+      <c r="D9">
         <v>92.436878058345357</v>
       </c>
-      <c r="E9" s="125">
+      <c r="E9">
         <v>89.239393651040828</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9">
         <v>88.138726690253947</v>
       </c>
-      <c r="G9" s="125">
+      <c r="G9">
         <v>79.89448582311843</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="125">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="125">
+      <c r="C10">
         <v>92.247995224872199</v>
       </c>
-      <c r="D10" s="125">
+      <c r="D10">
         <v>89.96573788123888</v>
       </c>
-      <c r="E10" s="125">
+      <c r="E10">
         <v>86.207406638465727</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F10">
         <v>82.598125127956706</v>
       </c>
-      <c r="G10" s="125">
+      <c r="G10">
         <v>78.769372284073967</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="125"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -751,19 +622,19 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="125">
+      <c r="C13">
         <v>0.05</v>
       </c>
-      <c r="D13" s="125">
+      <c r="D13">
         <v>0.1</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E13">
         <v>0.15</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13">
         <v>0.2</v>
       </c>
-      <c r="G13" s="125">
+      <c r="G13">
         <v>0.3</v>
       </c>
     </row>
@@ -774,19 +645,19 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="125">
+      <c r="C14">
         <v>76.875295922398422</v>
       </c>
-      <c r="D14" s="125">
+      <c r="D14">
         <v>61.092160543487992</v>
       </c>
-      <c r="E14" s="125">
+      <c r="E14">
         <v>54.007687494413162</v>
       </c>
-      <c r="F14" s="125">
+      <c r="F14">
         <v>61.207144237118548</v>
       </c>
-      <c r="G14" s="125">
+      <c r="G14">
         <v>52.57258857487232</v>
       </c>
     </row>
@@ -795,19 +666,19 @@
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C15" s="125">
+      <c r="C15">
         <v>76.741644247210886</v>
       </c>
-      <c r="D15" s="125">
+      <c r="D15">
         <v>70.130987292277624</v>
       </c>
-      <c r="E15" s="125">
+      <c r="E15">
         <v>90.533655135425064</v>
       </c>
-      <c r="F15" s="125">
+      <c r="F15">
         <v>91.10135900829593</v>
       </c>
-      <c r="G15" s="125">
+      <c r="G15">
         <v>86.396820041695875</v>
       </c>
     </row>
@@ -816,19 +687,19 @@
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C16" s="125">
+      <c r="C16">
         <v>76.945659852882201</v>
       </c>
-      <c r="D16" s="125">
+      <c r="D16">
         <v>84.109487682996104</v>
       </c>
-      <c r="E16" s="125">
+      <c r="E16">
         <v>91.412365158868155</v>
       </c>
-      <c r="F16" s="125">
+      <c r="F16">
         <v>91.339567527977451</v>
       </c>
-      <c r="G16" s="125">
+      <c r="G16">
         <v>88.343307468057688</v>
       </c>
     </row>
@@ -837,114 +708,105 @@
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="125">
+      <c r="C17">
         <v>76.57641790442247</v>
       </c>
-      <c r="D17" s="125">
+      <c r="D17">
         <v>90.319253050055252</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17">
         <v>91.636277130424986</v>
       </c>
-      <c r="F17" s="125">
+      <c r="F17">
         <v>91.551691623629964</v>
       </c>
-      <c r="G17" s="125">
+      <c r="G17">
         <v>89.263586478545065</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="125">
+      <c r="B18">
         <v>1E-3</v>
       </c>
-      <c r="C18" s="125">
+      <c r="C18">
         <v>78.485315616917106</v>
       </c>
-      <c r="D18" s="125">
+      <c r="D18">
         <v>92.712036147948226</v>
       </c>
-      <c r="E18" s="125">
+      <c r="E18">
         <v>92.391347099311673</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18">
         <v>91.970513009051416</v>
       </c>
-      <c r="G18" s="125">
+      <c r="G18">
         <v>84.263589362076374</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="125">
+      <c r="B19">
         <v>0.01</v>
       </c>
-      <c r="C19" s="125">
+      <c r="C19">
         <v>85.856532784308968</v>
       </c>
-      <c r="D19" s="125">
+      <c r="D19">
         <v>93.376632439150271</v>
       </c>
-      <c r="E19" s="125">
+      <c r="E19">
         <v>91.673688065352337</v>
       </c>
-      <c r="F19" s="125">
+      <c r="F19">
         <v>89.521622159361229</v>
       </c>
-      <c r="G19" s="125">
+      <c r="G19">
         <v>85.064403671312036</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="125">
+      <c r="B20">
         <v>0.1</v>
       </c>
-      <c r="C20" s="125">
+      <c r="C20">
         <v>89.821151855408203</v>
       </c>
-      <c r="D20" s="125">
+      <c r="D20">
         <v>89.684166818052049</v>
       </c>
-      <c r="E20" s="125">
+      <c r="E20">
         <v>86.734325844802598</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20">
         <v>84.456416866351205</v>
       </c>
-      <c r="G20" s="125">
+      <c r="G20">
         <v>78.547403812605069</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="125">
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="125">
+      <c r="C21">
         <v>87.679847288182998</v>
       </c>
-      <c r="D21" s="125">
+      <c r="D21">
         <v>86.013546829989892</v>
       </c>
-      <c r="E21" s="125">
+      <c r="E21">
         <v>83.445191279047989</v>
       </c>
-      <c r="F21" s="125">
+      <c r="F21">
         <v>80.576786996427302</v>
       </c>
-      <c r="G21" s="125">
+      <c r="G21">
         <v>75.706831373973827</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="125"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -962,19 +824,19 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="125">
+      <c r="C24">
         <v>0.05</v>
       </c>
-      <c r="D24" s="125">
+      <c r="D24">
         <v>0.1</v>
       </c>
-      <c r="E24" s="125">
+      <c r="E24">
         <v>0.15</v>
       </c>
-      <c r="F24" s="125">
+      <c r="F24">
         <v>0.2</v>
       </c>
-      <c r="G24" s="125">
+      <c r="G24">
         <v>0.3</v>
       </c>
     </row>
@@ -985,19 +847,19 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="125">
+      <c r="C25">
         <v>73.746404957367005</v>
       </c>
-      <c r="D25" s="125">
+      <c r="D25">
         <v>61.862588200013263</v>
       </c>
-      <c r="E25" s="125">
+      <c r="E25">
         <v>54.58201195512072</v>
       </c>
-      <c r="F25" s="125">
+      <c r="F25">
         <v>62.576608217487461</v>
       </c>
-      <c r="G25" s="125">
+      <c r="G25">
         <v>52.878836898819777</v>
       </c>
     </row>
@@ -1006,19 +868,19 @@
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C26" s="125">
+      <c r="C26">
         <v>74.057197726623954</v>
       </c>
-      <c r="D26" s="125">
+      <c r="D26">
         <v>69.886977107645109</v>
       </c>
-      <c r="E26" s="125">
+      <c r="E26">
         <v>89.897006029463924</v>
       </c>
-      <c r="F26" s="125">
+      <c r="F26">
         <v>91.079680620074569</v>
       </c>
-      <c r="G26" s="125">
+      <c r="G26">
         <v>87.630498533724349</v>
       </c>
     </row>
@@ -1027,19 +889,19 @@
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C27" s="125">
+      <c r="C27">
         <v>73.595117604823571</v>
       </c>
-      <c r="D27" s="125">
+      <c r="D27">
         <v>84.109424245307778</v>
       </c>
-      <c r="E27" s="125">
+      <c r="E27">
         <v>91.677794213906111</v>
       </c>
-      <c r="F27" s="125">
+      <c r="F27">
         <v>91.038694106350405</v>
       </c>
-      <c r="G27" s="125">
+      <c r="G27">
         <v>86.740300521630815</v>
       </c>
     </row>
@@ -1048,103 +910,103 @@
       <c r="B28" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C28" s="125">
+      <c r="C28">
         <v>73.360000230682502</v>
       </c>
-      <c r="D28" s="125">
+      <c r="D28">
         <v>89.318535050764595</v>
       </c>
-      <c r="E28" s="125">
+      <c r="E28">
         <v>92.171160650178635</v>
       </c>
-      <c r="F28" s="125">
+      <c r="F28">
         <v>91.347306925953802</v>
       </c>
-      <c r="G28" s="125">
+      <c r="G28">
         <v>89.714334322384559</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="125">
+      <c r="B29">
         <v>1E-3</v>
       </c>
-      <c r="C29" s="125">
+      <c r="C29">
         <v>75.904232158871054</v>
       </c>
-      <c r="D29" s="125">
+      <c r="D29">
         <v>92.450782446214944</v>
       </c>
-      <c r="E29" s="125">
+      <c r="E29">
         <v>91.836867100926483</v>
       </c>
-      <c r="F29" s="125">
+      <c r="F29">
         <v>91.242940394524737</v>
       </c>
-      <c r="G29" s="125">
+      <c r="G29">
         <v>82.074412408411817</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="125">
+      <c r="B30">
         <v>0.01</v>
       </c>
-      <c r="C30" s="125">
+      <c r="C30">
         <v>83.275956827769548</v>
       </c>
-      <c r="D30" s="125">
+      <c r="D30">
         <v>92.943998938860489</v>
       </c>
-      <c r="E30" s="125">
+      <c r="E30">
         <v>91.355917150379042</v>
       </c>
-      <c r="F30" s="125">
+      <c r="F30">
         <v>87.251129623381985</v>
       </c>
-      <c r="G30" s="125">
+      <c r="G30">
         <v>84.55933009801123</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="125">
+      <c r="B31">
         <v>0.1</v>
       </c>
-      <c r="C31" s="125">
+      <c r="C31">
         <v>88.722474531209897</v>
       </c>
-      <c r="D31" s="125">
+      <c r="D31">
         <v>88.610847267998281</v>
       </c>
-      <c r="E31" s="125">
+      <c r="E31">
         <v>84.909696450661357</v>
       </c>
-      <c r="F31" s="125">
+      <c r="F31">
         <v>83.024933895045223</v>
       </c>
-      <c r="G31" s="125">
+      <c r="G31">
         <v>76.780577686658191</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="125">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="125">
+      <c r="C32">
         <v>87.310201645342943</v>
       </c>
-      <c r="D32" s="125">
+      <c r="D32">
         <v>85.934630345706552</v>
       </c>
-      <c r="E32" s="125">
+      <c r="E32">
         <v>81.214906703345193</v>
       </c>
-      <c r="F32" s="125">
+      <c r="F32">
         <v>77.76865428478331</v>
       </c>
-      <c r="G32" s="125">
+      <c r="G32">
         <v>75.234791535105543</v>
       </c>
     </row>
@@ -1164,19 +1026,19 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="125">
+      <c r="C35">
         <v>0.05</v>
       </c>
-      <c r="D35" s="125">
+      <c r="D35">
         <v>0.1</v>
       </c>
-      <c r="E35" s="125">
+      <c r="E35">
         <v>0.15</v>
       </c>
-      <c r="F35" s="125">
+      <c r="F35">
         <v>0.2</v>
       </c>
-      <c r="G35" s="125">
+      <c r="G35">
         <v>0.3</v>
       </c>
     </row>
@@ -1187,19 +1049,19 @@
       <c r="B36" s="1">
         <v>0</v>
       </c>
-      <c r="C36" s="125">
+      <c r="C36">
         <v>71.40097521028153</v>
       </c>
-      <c r="D36" s="125">
+      <c r="D36">
         <v>61.486223929272747</v>
       </c>
-      <c r="E36" s="125">
+      <c r="E36">
         <v>54.40722382258209</v>
       </c>
-      <c r="F36" s="125">
+      <c r="F36">
         <v>62.075041018232568</v>
       </c>
-      <c r="G36" s="125">
+      <c r="G36">
         <v>51.971718325129693</v>
       </c>
     </row>
@@ -1208,19 +1070,19 @@
       <c r="B37" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C37" s="125">
+      <c r="C37">
         <v>71.928730640691825</v>
       </c>
-      <c r="D37" s="125">
+      <c r="D37">
         <v>69.986770358451778</v>
       </c>
-      <c r="E37" s="125">
+      <c r="E37">
         <v>88.864390407068115</v>
       </c>
-      <c r="F37" s="125">
+      <c r="F37">
         <v>90.926178715502161</v>
       </c>
-      <c r="G37" s="125">
+      <c r="G37">
         <v>85.962865884076294</v>
       </c>
     </row>
@@ -1229,19 +1091,19 @@
       <c r="B38" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C38" s="125">
+      <c r="C38">
         <v>71.959688232597188</v>
       </c>
-      <c r="D38" s="125">
+      <c r="D38">
         <v>81.765522769804832</v>
       </c>
-      <c r="E38" s="125">
+      <c r="E38">
         <v>90.13238292142087</v>
       </c>
-      <c r="F38" s="125">
+      <c r="F38">
         <v>90.273191521264607</v>
       </c>
-      <c r="G38" s="125">
+      <c r="G38">
         <v>85.725493588468183</v>
       </c>
     </row>
@@ -1250,114 +1112,105 @@
       <c r="B39" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C39" s="125">
+      <c r="C39">
         <v>71.356407350697964</v>
       </c>
-      <c r="D39" s="125">
+      <c r="D39">
         <v>88.870422754522082</v>
       </c>
-      <c r="E39" s="125">
+      <c r="E39">
         <v>91.471396811391102</v>
       </c>
-      <c r="F39" s="125">
+      <c r="F39">
         <v>91.223574598396169</v>
       </c>
-      <c r="G39" s="125">
+      <c r="G39">
         <v>88.643932905994006</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="125">
+      <c r="B40">
         <v>1E-3</v>
       </c>
-      <c r="C40" s="125">
+      <c r="C40">
         <v>72.90009429147311</v>
       </c>
-      <c r="D40" s="125">
+      <c r="D40">
         <v>91.986383965259208</v>
       </c>
-      <c r="E40" s="125">
+      <c r="E40">
         <v>91.585400104383837</v>
       </c>
-      <c r="F40" s="125">
+      <c r="F40">
         <v>90.623782789355161</v>
       </c>
-      <c r="G40" s="125">
+      <c r="G40">
         <v>78.816483418253327</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="125">
+      <c r="B41">
         <v>0.01</v>
       </c>
-      <c r="C41" s="125">
+      <c r="C41">
         <v>81.292266080733114</v>
       </c>
-      <c r="D41" s="125">
+      <c r="D41">
         <v>92.242153190483194</v>
       </c>
-      <c r="E41" s="125">
+      <c r="E41">
         <v>90.890445995784276</v>
       </c>
-      <c r="F41" s="125">
+      <c r="F41">
         <v>84.802307978442727</v>
       </c>
-      <c r="G41" s="125">
+      <c r="G41">
         <v>81.935114778962927</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="125">
+      <c r="B42">
         <v>0.1</v>
       </c>
-      <c r="C42" s="125">
+      <c r="C42">
         <v>86.433821515180369</v>
       </c>
-      <c r="D42" s="125">
+      <c r="D42">
         <v>88.188738656908782</v>
       </c>
-      <c r="E42" s="125">
+      <c r="E42">
         <v>83.985916833190615</v>
       </c>
-      <c r="F42" s="125">
+      <c r="F42">
         <v>81.751497273621169</v>
       </c>
-      <c r="G42" s="125">
+      <c r="G42">
         <v>74.120877631582744</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="125">
+      <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="125">
+      <c r="C43">
         <v>83.600209921077749</v>
       </c>
-      <c r="D43" s="125">
+      <c r="D43">
         <v>83.681006467760682</v>
       </c>
-      <c r="E43" s="125">
+      <c r="E43">
         <v>80.78759620181259</v>
       </c>
-      <c r="F43" s="125">
+      <c r="F43">
         <v>77.212611412440125</v>
       </c>
-      <c r="G43" s="125">
+      <c r="G43">
         <v>73.422688200878326</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="125"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
@@ -1375,19 +1228,19 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="125">
+      <c r="C46">
         <v>0.05</v>
       </c>
-      <c r="D46" s="125">
+      <c r="D46">
         <v>0.1</v>
       </c>
-      <c r="E46" s="125">
+      <c r="E46">
         <v>0.15</v>
       </c>
-      <c r="F46" s="125">
+      <c r="F46">
         <v>0.2</v>
       </c>
-      <c r="G46" s="125">
+      <c r="G46">
         <v>0.3</v>
       </c>
     </row>
@@ -1398,19 +1251,19 @@
       <c r="B47" s="1">
         <v>0</v>
       </c>
-      <c r="C47" s="125">
+      <c r="C47">
         <v>70.223260293485808</v>
       </c>
-      <c r="D47" s="125">
+      <c r="D47">
         <v>59.897046398901963</v>
       </c>
-      <c r="E47" s="125">
+      <c r="E47">
         <v>53.401534615351338</v>
       </c>
-      <c r="F47" s="125">
+      <c r="F47">
         <v>61.29098579284134</v>
       </c>
-      <c r="G47" s="125">
+      <c r="G47">
         <v>51.934716851645199</v>
       </c>
     </row>
@@ -1419,19 +1272,19 @@
       <c r="B48" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C48" s="125">
+      <c r="C48">
         <v>71.957075753250464</v>
       </c>
-      <c r="D48" s="125">
+      <c r="D48">
         <v>69.048936409484512</v>
       </c>
-      <c r="E48" s="125">
+      <c r="E48">
         <v>85.93018394046085</v>
       </c>
-      <c r="F48" s="125">
+      <c r="F48">
         <v>88.449652101950136</v>
       </c>
-      <c r="G48" s="125">
+      <c r="G48">
         <v>84.327499949538193</v>
       </c>
     </row>
@@ -1440,19 +1293,19 @@
       <c r="B49" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C49" s="125">
+      <c r="C49">
         <v>71.497417797731813</v>
       </c>
-      <c r="D49" s="125">
+      <c r="D49">
         <v>78.062036292124773</v>
       </c>
-      <c r="E49" s="125">
+      <c r="E49">
         <v>87.036733305074733</v>
       </c>
-      <c r="F49" s="125">
+      <c r="F49">
         <v>87.65879750978236</v>
       </c>
-      <c r="G49" s="125">
+      <c r="G49">
         <v>82.296715369510125</v>
       </c>
     </row>
@@ -1461,114 +1314,105 @@
       <c r="B50" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C50" s="125">
+      <c r="C50">
         <v>70.192146990890919</v>
       </c>
-      <c r="D50" s="125">
+      <c r="D50">
         <v>87.451217859439382</v>
       </c>
-      <c r="E50" s="125">
+      <c r="E50">
         <v>89.084657595077232</v>
       </c>
-      <c r="F50" s="125">
+      <c r="F50">
         <v>89.22967615060108</v>
       </c>
-      <c r="G50" s="125">
+      <c r="G50">
         <v>86.161085591859219</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="125">
+      <c r="B51">
         <v>1E-3</v>
       </c>
-      <c r="C51" s="125">
+      <c r="C51">
         <v>72.392517813014535</v>
       </c>
-      <c r="D51" s="125">
+      <c r="D51">
         <v>89.575573029755162</v>
       </c>
-      <c r="E51" s="125">
+      <c r="E51">
         <v>89.816353659345395</v>
       </c>
-      <c r="F51" s="125">
+      <c r="F51">
         <v>89.221567660619911</v>
       </c>
-      <c r="G51" s="125">
+      <c r="G51">
         <v>73.513352191627959</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52" s="125">
+      <c r="B52">
         <v>0.01</v>
       </c>
-      <c r="C52" s="125">
+      <c r="C52">
         <v>77.354659930737583</v>
       </c>
-      <c r="D52" s="125">
+      <c r="D52">
         <v>90.27680170243687</v>
       </c>
-      <c r="E52" s="125">
+      <c r="E52">
         <v>88.440580512518864</v>
       </c>
-      <c r="F52" s="125">
+      <c r="F52">
         <v>79.708100127740437</v>
       </c>
-      <c r="G52" s="125">
+      <c r="G52">
         <v>78.484127602026533</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
-      <c r="B53" s="125">
+      <c r="B53">
         <v>0.1</v>
       </c>
-      <c r="C53" s="125">
+      <c r="C53">
         <v>81.105297912034985</v>
       </c>
-      <c r="D53" s="125">
+      <c r="D53">
         <v>83.602591717921442</v>
       </c>
-      <c r="E53" s="125">
+      <c r="E53">
         <v>80.226391808464314</v>
       </c>
-      <c r="F53" s="125">
+      <c r="F53">
         <v>77.84593292329518</v>
       </c>
-      <c r="G53" s="125">
+      <c r="G53">
         <v>69.880910157815677</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54" s="125">
+      <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="125">
+      <c r="C54">
         <v>77.845650337228975</v>
       </c>
-      <c r="D54" s="125">
+      <c r="D54">
         <v>80.396739302819796</v>
       </c>
-      <c r="E54" s="125">
+      <c r="E54">
         <v>78.761782829724581</v>
       </c>
-      <c r="F54" s="125">
+      <c r="F54">
         <v>75.269030585616377</v>
       </c>
-      <c r="G54" s="125">
+      <c r="G54">
         <v>69.947513963500271</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="125"/>
-      <c r="B55" s="125"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
@@ -1586,19 +1430,19 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="125">
+      <c r="C57">
         <v>0.05</v>
       </c>
-      <c r="D57" s="125">
+      <c r="D57">
         <v>0.1</v>
       </c>
-      <c r="E57" s="125">
+      <c r="E57">
         <v>0.15</v>
       </c>
-      <c r="F57" s="125">
+      <c r="F57">
         <v>0.2</v>
       </c>
-      <c r="G57" s="125">
+      <c r="G57">
         <v>0.3</v>
       </c>
     </row>
@@ -1609,19 +1453,19 @@
       <c r="B58" s="1">
         <v>0</v>
       </c>
-      <c r="C58" s="125">
+      <c r="C58">
         <v>63.510151471898538</v>
       </c>
-      <c r="D58" s="125">
+      <c r="D58">
         <v>57.553237196400197</v>
       </c>
-      <c r="E58" s="125">
+      <c r="E58">
         <v>53.779444458862102</v>
       </c>
-      <c r="F58" s="125">
+      <c r="F58">
         <v>59.999630907995183</v>
       </c>
-      <c r="G58" s="125">
+      <c r="G58">
         <v>49.007534667254909</v>
       </c>
     </row>
@@ -1630,19 +1474,19 @@
       <c r="B59" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C59" s="125">
+      <c r="C59">
         <v>62.966997984411627</v>
       </c>
-      <c r="D59" s="125">
+      <c r="D59">
         <v>63.869900835359012</v>
       </c>
-      <c r="E59" s="125">
+      <c r="E59">
         <v>72.471682280988574</v>
       </c>
-      <c r="F59" s="125">
+      <c r="F59">
         <v>76.048062699504328</v>
       </c>
-      <c r="G59" s="125">
+      <c r="G59">
         <v>73.126468798749698</v>
       </c>
     </row>
@@ -1651,19 +1495,19 @@
       <c r="B60" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C60" s="125">
+      <c r="C60">
         <v>62.920175203361048</v>
       </c>
-      <c r="D60" s="125">
+      <c r="D60">
         <v>71.375951925766387</v>
       </c>
-      <c r="E60" s="125">
+      <c r="E60">
         <v>74.654198277378399</v>
       </c>
-      <c r="F60" s="125">
+      <c r="F60">
         <v>77.159467930806784</v>
       </c>
-      <c r="G60" s="125">
+      <c r="G60">
         <v>71.616922868421597</v>
       </c>
     </row>
@@ -1672,113 +1516,108 @@
       <c r="B61" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C61" s="125">
+      <c r="C61">
         <v>63.424995025908522</v>
       </c>
-      <c r="D61" s="125">
+      <c r="D61">
         <v>72.528412875543907</v>
       </c>
-      <c r="E61" s="125">
+      <c r="E61">
         <v>76.542865134358138</v>
       </c>
-      <c r="F61" s="125">
+      <c r="F61">
         <v>77.656213865748541</v>
       </c>
-      <c r="G61" s="125">
+      <c r="G61">
         <v>77.69327877692136</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="125">
+      <c r="B62">
         <v>1E-3</v>
       </c>
-      <c r="C62" s="125">
+      <c r="C62">
         <v>64.968999155125331</v>
       </c>
-      <c r="D62" s="125">
+      <c r="D62">
         <v>79.274774579941578</v>
       </c>
-      <c r="E62" s="125">
+      <c r="E62">
         <v>78.086459802132083</v>
       </c>
-      <c r="F62" s="125">
+      <c r="F62">
         <v>79.968240786396649</v>
       </c>
-      <c r="G62" s="125">
+      <c r="G62">
         <v>69.114784729971703</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="125">
+      <c r="B63">
         <v>0.01</v>
       </c>
-      <c r="C63" s="125">
+      <c r="C63">
         <v>68.08411837472643</v>
       </c>
-      <c r="D63" s="125">
+      <c r="D63">
         <v>81.771341735943508</v>
       </c>
-      <c r="E63" s="125">
+      <c r="E63">
         <v>78.75740562922978</v>
       </c>
-      <c r="F63" s="125">
+      <c r="F63">
         <v>71.470191495312804</v>
       </c>
-      <c r="G63" s="125">
+      <c r="G63">
         <v>72.311040752947704</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64" s="125">
+      <c r="B64">
         <v>0.1</v>
       </c>
-      <c r="C64" s="125">
+      <c r="C64">
         <v>65.090989829785144</v>
       </c>
-      <c r="D64" s="125">
+      <c r="D64">
         <v>71.895581565007788</v>
       </c>
-      <c r="E64" s="125">
+      <c r="E64">
         <v>73.12156102849795</v>
       </c>
-      <c r="F64" s="125">
+      <c r="F64">
         <v>72.823023267213969</v>
       </c>
-      <c r="G64" s="125">
+      <c r="G64">
         <v>63.899312854494127</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65" s="125">
+      <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="125">
+      <c r="C65">
         <v>63.236625461004557</v>
       </c>
-      <c r="D65" s="125">
+      <c r="D65">
         <v>66.471157478294231</v>
       </c>
-      <c r="E65" s="125">
+      <c r="E65">
         <v>68.941265351199689</v>
       </c>
-      <c r="F65" s="125">
+      <c r="F65">
         <v>68.141575619166261</v>
       </c>
-      <c r="G65" s="125">
+      <c r="G65">
         <v>65.279393997064574</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:G56"/>
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="C23:G23"/>
@@ -1786,12 +1625,17 @@
     <mergeCell ref="A34:B35"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A14:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A14:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:G10">
@@ -2016,15 +1860,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G32"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2036,197 +1880,205 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2">
+      <c r="C2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
         <v>0.05</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.15</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1"/>
+      <c r="D3">
         <v>71.40097521028153</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>61.486223929272747</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>54.40722382258209</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>62.075041018232568</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>51.971718325129693</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2"/>
+      <c r="D4">
         <v>71.928730640691825</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>69.986770358451778</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>88.864390407068115</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>90.926178715502161</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>85.962865884076294</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2"/>
+      <c r="D5">
         <v>71.959688232597188</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>81.765522769804832</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>90.13238292142087</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>90.273191521264607</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>85.725493588468183</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3"/>
+      <c r="D6">
         <v>71.356407350697964</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>88.870422754522082</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>91.471396811391102</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>91.223574598396169</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>88.643932905994006</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7">
         <v>1E-3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>72.90009429147311</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>91.986383965259208</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91.585400104383837</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>90.623782789355161</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>78.816483418253327</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8">
         <v>0.01</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>81.292266080733114</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>92.242153190483194</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>90.890445995784276</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>84.802307978442727</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>81.935114778962927</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>86.433821515180369</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>88.188738656908782</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>83.985916833190615</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>81.751497273621169</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>74.120877631582744</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>83.600209921077749</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>83.681006467760682</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>80.78759620181259</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>77.212611412440125</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>73.422688200878326</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -2238,197 +2090,205 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13">
+      <c r="C13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
         <v>0.05</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.1</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.15</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1"/>
+      <c r="D14">
         <v>70.223260293485808</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>59.897046398901963</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>53.401534615351338</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>61.29098579284134</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>51.934716851645199</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2"/>
+      <c r="D15">
         <v>71.957075753250464</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>69.048936409484512</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>85.93018394046085</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>88.449652101950136</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>84.327499949538193</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2"/>
+      <c r="D16">
         <v>71.497417797731813</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>78.062036292124773</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>87.036733305074733</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>87.65879750978236</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>82.296715369510125</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3"/>
+      <c r="D17">
         <v>70.192146990890919</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>87.451217859439382</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>89.084657595077232</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>89.22967615060108</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>86.161085591859219</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18">
         <v>1E-3</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>72.392517813014535</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>89.575573029755162</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>89.816353659345395</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>89.221567660619911</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>73.513352191627959</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19">
         <v>0.01</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>77.354659930737583</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>90.27680170243687</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>88.440580512518864</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>79.708100127740437</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>78.484127602026533</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20">
         <v>0.1</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>81.105297912034985</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>83.602591717921442</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>80.226391808464314</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>77.84593292329518</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>69.880910157815677</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>77.845650337228975</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>80.396739302819796</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>78.761782829724581</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>75.269030585616377</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>69.947513963500271</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -2440,210 +2300,218 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24">
+      <c r="C24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D24">
         <v>0.05</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.1</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.15</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1"/>
+      <c r="D25">
         <v>63.510151471898538</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>57.553237196400197</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>53.779444458862102</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>59.999630907995183</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>49.007534667254909</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2"/>
+      <c r="D26">
         <v>62.966997984411627</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>63.869900835359012</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>72.471682280988574</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>76.048062699504328</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>73.126468798749698</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2"/>
+      <c r="D27">
         <v>62.920175203361048</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>71.375951925766387</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>74.654198277378399</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>77.159467930806784</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>71.616922868421597</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3"/>
+      <c r="D28">
         <v>63.424995025908522</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>72.528412875543907</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>76.542865134358138</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>77.656213865748541</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>77.69327877692136</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29">
         <v>1E-3</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>64.968999155125331</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>79.274774579941578</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>78.086459802132083</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>79.968240786396649</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>69.114784729971703</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30">
         <v>0.01</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>68.08411837472643</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>81.771341735943508</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>78.75740562922978</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>71.470191495312804</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>72.311040752947704</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31">
         <v>0.1</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>65.090989829785144</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>71.895581565007788</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>73.12156102849795</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>72.823023267213969</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>63.899312854494127</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>63.236625461004557</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>66.471157478294231</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>68.941265351199689</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>68.141575619166261</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>65.279393997064574</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C23:H23"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A14:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3:G10">
+  <conditionalFormatting sqref="D3:H10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2655,7 +2523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G10">
+  <conditionalFormatting sqref="D4:H10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2667,7 +2535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:G10">
+  <conditionalFormatting sqref="D6:H10">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2679,7 +2547,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:G21">
+  <conditionalFormatting sqref="D14:H21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2691,7 +2559,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:G21">
+  <conditionalFormatting sqref="D15:H21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2703,7 +2571,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:G21">
+  <conditionalFormatting sqref="D17:H21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2715,7 +2583,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:G32">
+  <conditionalFormatting sqref="D25:H32">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2727,7 +2595,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:G32">
+  <conditionalFormatting sqref="D26:H32">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2739,7 +2607,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:G32">
+  <conditionalFormatting sqref="D28:H32">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2757,15 +2625,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D797DD3D-0D28-4952-8A5D-62303F7013D2}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G32"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2777,197 +2645,201 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2">
+      <c r="C2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
         <v>0.05</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.15</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="123">
+      <c r="D3">
         <v>79.209249214958604</v>
       </c>
-      <c r="D3" s="99">
+      <c r="E3">
         <v>61.869704755231453</v>
       </c>
-      <c r="E3" s="75">
+      <c r="F3">
         <v>54.734994824061339</v>
       </c>
-      <c r="F3" s="51">
+      <c r="G3">
         <v>61.775545924561051</v>
       </c>
-      <c r="G3" s="27">
+      <c r="H3">
         <v>52.115923724830367</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C4" s="120">
+      <c r="D4">
         <v>80.17563589073724</v>
       </c>
-      <c r="D4" s="96">
+      <c r="E4">
         <v>69.334901974353883</v>
       </c>
-      <c r="E4" s="72">
+      <c r="F4">
         <v>89.865241048797998</v>
       </c>
-      <c r="F4" s="48">
+      <c r="G4">
         <v>91.082050882793098</v>
       </c>
-      <c r="G4" s="24">
+      <c r="H4">
         <v>86.922776148582614</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="117">
+      <c r="D5">
         <v>79.058890359489837</v>
       </c>
-      <c r="D5" s="93">
+      <c r="E5">
         <v>84.42951928649903</v>
       </c>
-      <c r="E5" s="69">
+      <c r="F5">
         <v>91.292369887859465</v>
       </c>
-      <c r="F5" s="45">
+      <c r="G5">
         <v>90.942551406154024</v>
       </c>
-      <c r="G5" s="21">
+      <c r="H5">
         <v>87.362283987462419</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C6" s="114">
+      <c r="D6">
         <v>80.100946663321764</v>
       </c>
-      <c r="D6" s="90">
+      <c r="E6">
         <v>90.76182319916262</v>
       </c>
-      <c r="E6" s="66">
+      <c r="F6">
         <v>91.085649529840211</v>
       </c>
-      <c r="F6" s="42">
+      <c r="G6">
         <v>90.839874624059604</v>
       </c>
-      <c r="G6" s="18">
+      <c r="H6">
         <v>88.692203219751036</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7">
         <v>1E-3</v>
       </c>
-      <c r="C7" s="111">
+      <c r="D7">
         <v>81.049547718117523</v>
       </c>
-      <c r="D7" s="87">
+      <c r="E7">
         <v>92.340435470895059</v>
       </c>
-      <c r="E7" s="63">
+      <c r="F7">
         <v>92.021689922346511</v>
       </c>
-      <c r="F7" s="39">
+      <c r="G7">
         <v>91.75618012843249</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H7">
         <v>84.276190393803844</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8">
         <v>0.01</v>
       </c>
-      <c r="C8" s="108">
+      <c r="D8">
         <v>89.927277340922785</v>
       </c>
-      <c r="D8" s="84">
+      <c r="E8">
         <v>93.10718950855977</v>
       </c>
-      <c r="E8" s="60">
+      <c r="F8">
         <v>92.275434908606471</v>
       </c>
-      <c r="F8" s="36">
+      <c r="G8">
         <v>89.310316986594458</v>
       </c>
-      <c r="G8" s="12">
+      <c r="H8">
         <v>86.685230841097251</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C9" s="105">
+      <c r="D9">
         <v>93.034541821296031</v>
       </c>
-      <c r="D9" s="81">
+      <c r="E9">
         <v>92.436878058345357</v>
       </c>
-      <c r="E9" s="57">
+      <c r="F9">
         <v>89.239393651040828</v>
       </c>
-      <c r="F9" s="33">
+      <c r="G9">
         <v>88.138726690253947</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9">
         <v>79.89448582311843</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="102">
+      <c r="D10">
         <v>92.247995224872199</v>
       </c>
-      <c r="D10" s="78">
+      <c r="E10">
         <v>89.96573788123888</v>
       </c>
-      <c r="E10" s="54">
+      <c r="F10">
         <v>86.207406638465727</v>
       </c>
-      <c r="F10" s="30">
+      <c r="G10">
         <v>82.598125127956706</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10">
         <v>78.769372284073967</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -2979,197 +2851,201 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13">
+      <c r="C13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
         <v>0.05</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.1</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.15</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="124">
+      <c r="D14">
         <v>76.875295922398422</v>
       </c>
-      <c r="D14" s="100">
+      <c r="E14">
         <v>61.092160543487992</v>
       </c>
-      <c r="E14" s="76">
+      <c r="F14">
         <v>54.007687494413162</v>
       </c>
-      <c r="F14" s="52">
+      <c r="G14">
         <v>61.207144237118548</v>
       </c>
-      <c r="G14" s="28">
+      <c r="H14">
         <v>52.57258857487232</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C15" s="121">
+      <c r="D15">
         <v>76.741644247210886</v>
       </c>
-      <c r="D15" s="97">
+      <c r="E15">
         <v>70.130987292277624</v>
       </c>
-      <c r="E15" s="73">
+      <c r="F15">
         <v>90.533655135425064</v>
       </c>
-      <c r="F15" s="49">
+      <c r="G15">
         <v>91.10135900829593</v>
       </c>
-      <c r="G15" s="25">
+      <c r="H15">
         <v>86.396820041695875</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C16" s="118">
+      <c r="D16">
         <v>76.945659852882201</v>
       </c>
-      <c r="D16" s="94">
+      <c r="E16">
         <v>84.109487682996104</v>
       </c>
-      <c r="E16" s="70">
+      <c r="F16">
         <v>91.412365158868155</v>
       </c>
-      <c r="F16" s="46">
+      <c r="G16">
         <v>91.339567527977451</v>
       </c>
-      <c r="G16" s="22">
+      <c r="H16">
         <v>88.343307468057688</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="115">
+      <c r="D17">
         <v>76.57641790442247</v>
       </c>
-      <c r="D17" s="91">
+      <c r="E17">
         <v>90.319253050055252</v>
       </c>
-      <c r="E17" s="67">
+      <c r="F17">
         <v>91.636277130424986</v>
       </c>
-      <c r="F17" s="43">
+      <c r="G17">
         <v>91.551691623629964</v>
       </c>
-      <c r="G17" s="19">
+      <c r="H17">
         <v>89.263586478545065</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18">
         <v>1E-3</v>
       </c>
-      <c r="C18" s="112">
+      <c r="D18">
         <v>78.485315616917106</v>
       </c>
-      <c r="D18" s="88">
+      <c r="E18">
         <v>92.712036147948226</v>
       </c>
-      <c r="E18" s="64">
+      <c r="F18">
         <v>92.391347099311673</v>
       </c>
-      <c r="F18" s="40">
+      <c r="G18">
         <v>91.970513009051416</v>
       </c>
-      <c r="G18" s="16">
+      <c r="H18">
         <v>84.263589362076374</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19">
         <v>0.01</v>
       </c>
-      <c r="C19" s="109">
+      <c r="D19">
         <v>85.856532784308968</v>
       </c>
-      <c r="D19" s="85">
+      <c r="E19">
         <v>93.376632439150271</v>
       </c>
-      <c r="E19" s="61">
+      <c r="F19">
         <v>91.673688065352337</v>
       </c>
-      <c r="F19" s="37">
+      <c r="G19">
         <v>89.521622159361229</v>
       </c>
-      <c r="G19" s="13">
+      <c r="H19">
         <v>85.064403671312036</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20">
         <v>0.1</v>
       </c>
-      <c r="C20" s="106">
+      <c r="D20">
         <v>89.821151855408203</v>
       </c>
-      <c r="D20" s="82">
+      <c r="E20">
         <v>89.684166818052049</v>
       </c>
-      <c r="E20" s="58">
+      <c r="F20">
         <v>86.734325844802598</v>
       </c>
-      <c r="F20" s="34">
+      <c r="G20">
         <v>84.456416866351205</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20">
         <v>78.547403812605069</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="103">
+      <c r="D21">
         <v>87.679847288182998</v>
       </c>
-      <c r="D21" s="79">
+      <c r="E21">
         <v>86.013546829989892</v>
       </c>
-      <c r="E21" s="55">
+      <c r="F21">
         <v>83.445191279047989</v>
       </c>
-      <c r="F21" s="31">
+      <c r="G21">
         <v>80.576786996427302</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21">
         <v>75.706831373973827</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -3181,210 +3057,215 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24">
+      <c r="C24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D24">
         <v>0.05</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.1</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.15</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="125">
+      <c r="C25" s="1"/>
+      <c r="D25">
         <v>73.746404957367005</v>
       </c>
-      <c r="D25" s="101">
+      <c r="E25">
         <v>61.862588200013263</v>
       </c>
-      <c r="E25" s="77">
+      <c r="F25">
         <v>54.58201195512072</v>
       </c>
-      <c r="F25" s="53">
+      <c r="G25">
         <v>62.576608217487461</v>
       </c>
-      <c r="G25" s="29">
+      <c r="H25">
         <v>52.878836898819777</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C26" s="122">
+      <c r="D26">
         <v>74.057197726623954</v>
       </c>
-      <c r="D26" s="98">
+      <c r="E26">
         <v>69.886977107645109</v>
       </c>
-      <c r="E26" s="74">
+      <c r="F26">
         <v>89.897006029463924</v>
       </c>
-      <c r="F26" s="50">
+      <c r="G26">
         <v>91.079680620074569</v>
       </c>
-      <c r="G26" s="26">
+      <c r="H26">
         <v>87.630498533724349</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C27" s="119">
+      <c r="D27">
         <v>73.595117604823571</v>
       </c>
-      <c r="D27" s="95">
+      <c r="E27">
         <v>84.109424245307778</v>
       </c>
-      <c r="E27" s="71">
+      <c r="F27">
         <v>91.677794213906111</v>
       </c>
-      <c r="F27" s="47">
+      <c r="G27">
         <v>91.038694106350405</v>
       </c>
-      <c r="G27" s="23">
+      <c r="H27">
         <v>86.740300521630815</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C28" s="116">
+      <c r="D28">
         <v>73.360000230682502</v>
       </c>
-      <c r="D28" s="92">
+      <c r="E28">
         <v>89.318535050764595</v>
       </c>
-      <c r="E28" s="68">
+      <c r="F28">
         <v>92.171160650178635</v>
       </c>
-      <c r="F28" s="44">
+      <c r="G28">
         <v>91.347306925953802</v>
       </c>
-      <c r="G28" s="20">
+      <c r="H28">
         <v>89.714334322384559</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29">
         <v>1E-3</v>
       </c>
-      <c r="C29" s="113">
+      <c r="D29">
         <v>75.904232158871054</v>
       </c>
-      <c r="D29" s="89">
+      <c r="E29">
         <v>92.450782446214944</v>
       </c>
-      <c r="E29" s="65">
+      <c r="F29">
         <v>91.836867100926483</v>
       </c>
-      <c r="F29" s="41">
+      <c r="G29">
         <v>91.242940394524737</v>
       </c>
-      <c r="G29" s="17">
+      <c r="H29">
         <v>82.074412408411817</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30">
         <v>0.01</v>
       </c>
-      <c r="C30" s="110">
+      <c r="D30">
         <v>83.275956827769548</v>
       </c>
-      <c r="D30" s="86">
+      <c r="E30">
         <v>92.943998938860489</v>
       </c>
-      <c r="E30" s="62">
+      <c r="F30">
         <v>91.355917150379042</v>
       </c>
-      <c r="F30" s="38">
+      <c r="G30">
         <v>87.251129623381985</v>
       </c>
-      <c r="G30" s="14">
+      <c r="H30">
         <v>84.55933009801123</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31">
         <v>0.1</v>
       </c>
-      <c r="C31" s="107">
+      <c r="D31">
         <v>88.722474531209897</v>
       </c>
-      <c r="D31" s="83">
+      <c r="E31">
         <v>88.610847267998281</v>
       </c>
-      <c r="E31" s="59">
+      <c r="F31">
         <v>84.909696450661357</v>
       </c>
-      <c r="F31" s="35">
+      <c r="G31">
         <v>83.024933895045223</v>
       </c>
-      <c r="G31" s="11">
+      <c r="H31">
         <v>76.780577686658191</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="104">
+      <c r="D32">
         <v>87.310201645342943</v>
       </c>
-      <c r="D32" s="80">
+      <c r="E32">
         <v>85.934630345706552</v>
       </c>
-      <c r="E32" s="56">
+      <c r="F32">
         <v>81.214906703345193</v>
       </c>
-      <c r="F32" s="32">
+      <c r="G32">
         <v>77.76865428478331</v>
       </c>
-      <c r="G32" s="8">
+      <c r="H32">
         <v>75.234791535105543</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C23:H23"/>
     <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:G23"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A14:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3:G10">
+  <conditionalFormatting sqref="D3:H10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3396,7 +3277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:G10">
+  <conditionalFormatting sqref="D4:H10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3408,7 +3289,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:G10">
+  <conditionalFormatting sqref="D6:H10">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3420,7 +3301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:G21">
+  <conditionalFormatting sqref="D14:H21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3432,7 +3313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:G21">
+  <conditionalFormatting sqref="D15:H21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3444,7 +3325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:G21">
+  <conditionalFormatting sqref="D17:H21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3456,7 +3337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:G32">
+  <conditionalFormatting sqref="D25:H32">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3468,7 +3349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:G32">
+  <conditionalFormatting sqref="D26:H32">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3480,7 +3361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:G32">
+  <conditionalFormatting sqref="D28:H32">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>

--- a/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/pcc/summary_selection_rate.xlsx
+++ b/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/pcc/summary_selection_rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\parameter_optimization_sigma_lambda\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE99345-58A7-405F-BD6F-07DD3495BED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CFF026-D2F2-4E28-B4A2-680C1F52E466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" tabRatio="596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,6 +116,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68875796-7DD7-46D9-A668-8734DDD9E17C}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -1618,6 +1642,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="C23:G23"/>
@@ -1630,12 +1660,6 @@
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="A56:B57"/>
     <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:G10">
@@ -1862,7 +1886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -2676,6 +2700,9 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
+      <c r="C3" s="27">
+        <v>92.925071439487667</v>
+      </c>
       <c r="D3">
         <v>79.209249214958604</v>
       </c>
@@ -2697,6 +2724,9 @@
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="C4" s="24">
+        <v>92.298964523914577</v>
+      </c>
       <c r="D4">
         <v>80.17563589073724</v>
       </c>
@@ -2718,6 +2748,9 @@
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="C5" s="21">
+        <v>92.812388803824703</v>
+      </c>
       <c r="D5">
         <v>79.058890359489837</v>
       </c>
@@ -2739,6 +2772,9 @@
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
+      <c r="C6" s="18">
+        <v>92.822106304264452</v>
+      </c>
       <c r="D6">
         <v>80.100946663321764</v>
       </c>
@@ -2760,6 +2796,9 @@
       <c r="B7">
         <v>1E-3</v>
       </c>
+      <c r="C7" s="15">
+        <v>92.88309299100051</v>
+      </c>
       <c r="D7">
         <v>81.049547718117523</v>
       </c>
@@ -2781,6 +2820,9 @@
       <c r="B8">
         <v>0.01</v>
       </c>
+      <c r="C8" s="12">
+        <v>92.736130935388715</v>
+      </c>
       <c r="D8">
         <v>89.927277340922785</v>
       </c>
@@ -2802,6 +2844,9 @@
       <c r="B9">
         <v>0.1</v>
       </c>
+      <c r="C9" s="9">
+        <v>92.719994694302429</v>
+      </c>
       <c r="D9">
         <v>93.034541821296031</v>
       </c>
@@ -2822,6 +2867,9 @@
       <c r="A10" s="4"/>
       <c r="B10">
         <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>92.918883381344131</v>
       </c>
       <c r="D10">
         <v>92.247995224872199</v>
@@ -2882,6 +2930,9 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
+      <c r="C14" s="28">
+        <v>88.441474407218038</v>
+      </c>
       <c r="D14">
         <v>76.875295922398422</v>
       </c>
@@ -2903,6 +2954,9 @@
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="C15" s="25">
+        <v>89.031900506636475</v>
+      </c>
       <c r="D15">
         <v>76.741644247210886</v>
       </c>
@@ -2924,6 +2978,9 @@
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="C16" s="22">
+        <v>89.075995467088831</v>
+      </c>
       <c r="D16">
         <v>76.945659852882201</v>
       </c>
@@ -2945,6 +3002,9 @@
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
+      <c r="C17" s="19">
+        <v>88.779891406211689</v>
+      </c>
       <c r="D17">
         <v>76.57641790442247</v>
       </c>
@@ -2966,6 +3026,9 @@
       <c r="B18">
         <v>1E-3</v>
       </c>
+      <c r="C18" s="16">
+        <v>88.60604330487287</v>
+      </c>
       <c r="D18">
         <v>78.485315616917106</v>
       </c>
@@ -2987,6 +3050,9 @@
       <c r="B19">
         <v>0.01</v>
       </c>
+      <c r="C19" s="13">
+        <v>88.842648581158443</v>
+      </c>
       <c r="D19">
         <v>85.856532784308968</v>
       </c>
@@ -3008,6 +3074,9 @@
       <c r="B20">
         <v>0.1</v>
       </c>
+      <c r="C20" s="10">
+        <v>89.203476385320528</v>
+      </c>
       <c r="D20">
         <v>89.821151855408203</v>
       </c>
@@ -3028,6 +3097,9 @@
       <c r="A21" s="4"/>
       <c r="B21">
         <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>88.651937588848796</v>
       </c>
       <c r="D21">
         <v>87.679847288182998</v>
@@ -3088,7 +3160,9 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="29">
+        <v>86.615305207369161</v>
+      </c>
       <c r="D25">
         <v>73.746404957367005</v>
       </c>
@@ -3110,6 +3184,9 @@
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="C26" s="26">
+        <v>86.567830748247559</v>
+      </c>
       <c r="D26">
         <v>74.057197726623954</v>
       </c>
@@ -3131,6 +3208,9 @@
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="C27" s="23">
+        <v>87.243672811471839</v>
+      </c>
       <c r="D27">
         <v>73.595117604823571</v>
       </c>
@@ -3152,6 +3232,9 @@
       <c r="B28" s="3">
         <v>1E-4</v>
       </c>
+      <c r="C28" s="20">
+        <v>86.707964601769916</v>
+      </c>
       <c r="D28">
         <v>73.360000230682502</v>
       </c>
@@ -3173,6 +3256,9 @@
       <c r="B29">
         <v>1E-3</v>
       </c>
+      <c r="C29" s="17">
+        <v>86.777065545549704</v>
+      </c>
       <c r="D29">
         <v>75.904232158871054</v>
       </c>
@@ -3194,6 +3280,9 @@
       <c r="B30">
         <v>0.01</v>
       </c>
+      <c r="C30" s="14">
+        <v>87.415225621905606</v>
+      </c>
       <c r="D30">
         <v>83.275956827769548</v>
       </c>
@@ -3215,6 +3304,9 @@
       <c r="B31">
         <v>0.1</v>
       </c>
+      <c r="C31" s="11">
+        <v>86.98288047474459</v>
+      </c>
       <c r="D31">
         <v>88.722474531209897</v>
       </c>
@@ -3235,6 +3327,9 @@
       <c r="A32" s="4"/>
       <c r="B32">
         <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <v>86.689331222588422</v>
       </c>
       <c r="D32">
         <v>87.310201645342943</v>
@@ -3266,6 +3361,114 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:H10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:H10">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:H10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:H21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:H21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:H21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:H32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:H32">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:H32">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:H10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3277,31 +3480,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:H10">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:H10">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:H21">
+  <conditionalFormatting sqref="C14:H21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3313,56 +3492,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:H21">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:H21">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:H32">
+  <conditionalFormatting sqref="C25:H32">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:H32">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:H32">
-    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/pcc/summary_selection_rate.xlsx
+++ b/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/pcc/summary_selection_rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\parameter_optimization_sigma_lambda\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CFF026-D2F2-4E28-B4A2-680C1F52E466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDA1D4F-27BA-4B2E-9C44-D6753CC8B9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" tabRatio="596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" tabRatio="596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,7 +116,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1642,12 +1641,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="C23:G23"/>
@@ -1660,6 +1653,12 @@
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="A56:B57"/>
     <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:G10">
@@ -1886,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -1935,7 +1934,9 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="26">
+        <v>83.724709267957905</v>
+      </c>
       <c r="D3">
         <v>71.40097521028153</v>
       </c>
@@ -1957,7 +1958,9 @@
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="23">
+        <v>83.591063359832987</v>
+      </c>
       <c r="D4">
         <v>71.928730640691825</v>
       </c>
@@ -1979,7 +1982,9 @@
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="21">
+        <v>83.678272880099897</v>
+      </c>
       <c r="D5">
         <v>71.959688232597188</v>
       </c>
@@ -2001,7 +2006,9 @@
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="18">
+        <v>83.664057070851243</v>
+      </c>
       <c r="D6">
         <v>71.356407350697964</v>
       </c>
@@ -2023,6 +2030,9 @@
       <c r="B7">
         <v>1E-3</v>
       </c>
+      <c r="C7" s="15">
+        <v>84.371681415929217</v>
+      </c>
       <c r="D7">
         <v>72.90009429147311</v>
       </c>
@@ -2044,6 +2054,9 @@
       <c r="B8">
         <v>0.01</v>
       </c>
+      <c r="C8" s="12">
+        <v>83.559869318362047</v>
+      </c>
       <c r="D8">
         <v>81.292266080733114</v>
       </c>
@@ -2065,6 +2078,9 @@
       <c r="B9">
         <v>0.1</v>
       </c>
+      <c r="C9" s="9">
+        <v>84.251017165661764</v>
+      </c>
       <c r="D9">
         <v>86.433821515180369</v>
       </c>
@@ -2085,6 +2101,9 @@
       <c r="A10" s="4"/>
       <c r="B10">
         <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>83.658705236781159</v>
       </c>
       <c r="D10">
         <v>83.600209921077749</v>
@@ -2145,7 +2164,9 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="27">
+        <v>75.658682168530873</v>
+      </c>
       <c r="D14">
         <v>70.223260293485808</v>
       </c>
@@ -2167,7 +2188,9 @@
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="24">
+        <v>76.465240472091736</v>
+      </c>
       <c r="D15">
         <v>71.957075753250464</v>
       </c>
@@ -2189,7 +2212,9 @@
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="22">
+        <v>74.745744628702099</v>
+      </c>
       <c r="D16">
         <v>71.497417797731813</v>
       </c>
@@ -2211,7 +2236,9 @@
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="19">
+        <v>74.646868340844932</v>
+      </c>
       <c r="D17">
         <v>70.192146990890919</v>
       </c>
@@ -2233,6 +2260,9 @@
       <c r="B18">
         <v>1E-3</v>
       </c>
+      <c r="C18" s="16">
+        <v>74.376664157994441</v>
+      </c>
       <c r="D18">
         <v>72.392517813014535</v>
       </c>
@@ -2254,6 +2284,9 @@
       <c r="B19">
         <v>0.01</v>
       </c>
+      <c r="C19" s="13">
+        <v>76.341023711277771</v>
+      </c>
       <c r="D19">
         <v>77.354659930737583</v>
       </c>
@@ -2275,6 +2308,9 @@
       <c r="B20">
         <v>0.1</v>
       </c>
+      <c r="C20" s="10">
+        <v>75.278598142429146</v>
+      </c>
       <c r="D20">
         <v>81.105297912034985</v>
       </c>
@@ -2295,6 +2331,9 @@
       <c r="A21" s="4"/>
       <c r="B21">
         <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>75.957577487694536</v>
       </c>
       <c r="D21">
         <v>77.845650337228975</v>
@@ -2355,7 +2394,9 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="28">
+        <v>59.845759911417908</v>
+      </c>
       <c r="D25">
         <v>63.510151471898538</v>
       </c>
@@ -2377,7 +2418,9 @@
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="25">
+        <v>60.431382047710912</v>
+      </c>
       <c r="D26">
         <v>62.966997984411627</v>
       </c>
@@ -2399,7 +2442,9 @@
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="24">
+        <v>60.363728636637568</v>
+      </c>
       <c r="D27">
         <v>62.920175203361048</v>
       </c>
@@ -2421,7 +2466,9 @@
       <c r="B28" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="20">
+        <v>60.048668241074758</v>
+      </c>
       <c r="D28">
         <v>63.424995025908522</v>
       </c>
@@ -2443,6 +2490,9 @@
       <c r="B29">
         <v>1E-3</v>
       </c>
+      <c r="C29" s="17">
+        <v>60.20028431618497</v>
+      </c>
       <c r="D29">
         <v>64.968999155125331</v>
       </c>
@@ -2464,6 +2514,9 @@
       <c r="B30">
         <v>0.01</v>
       </c>
+      <c r="C30" s="14">
+        <v>59.950708916167088</v>
+      </c>
       <c r="D30">
         <v>68.08411837472643</v>
       </c>
@@ -2485,6 +2538,9 @@
       <c r="B31">
         <v>0.1</v>
       </c>
+      <c r="C31" s="11">
+        <v>60.604987932421558</v>
+      </c>
       <c r="D31">
         <v>65.090989829785144</v>
       </c>
@@ -2505,6 +2561,9 @@
       <c r="A32" s="4"/>
       <c r="B32">
         <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <v>59.704680259633157</v>
       </c>
       <c r="D32">
         <v>63.236625461004557</v>
@@ -2536,6 +2595,114 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:H10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:H10">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:H10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:H21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:H21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:H21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:H32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:H32">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:H32">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:H32">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2547,31 +2714,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:H10">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:H10">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:H21">
+  <conditionalFormatting sqref="C14:H21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2583,56 +2726,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:H21">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:H21">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:H32">
+  <conditionalFormatting sqref="C3:H10">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:H32">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:H32">
-    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2651,7 +2746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D797DD3D-0D28-4952-8A5D-62303F7013D2}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -2700,7 +2795,7 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3">
         <v>92.925071439487667</v>
       </c>
       <c r="D3">
@@ -2724,7 +2819,7 @@
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4">
         <v>92.298964523914577</v>
       </c>
       <c r="D4">
@@ -2748,7 +2843,7 @@
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5">
         <v>92.812388803824703</v>
       </c>
       <c r="D5">
@@ -2772,7 +2867,7 @@
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6">
         <v>92.822106304264452</v>
       </c>
       <c r="D6">
@@ -2796,7 +2891,7 @@
       <c r="B7">
         <v>1E-3</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7">
         <v>92.88309299100051</v>
       </c>
       <c r="D7">
@@ -2820,7 +2915,7 @@
       <c r="B8">
         <v>0.01</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <v>92.736130935388715</v>
       </c>
       <c r="D8">
@@ -2844,7 +2939,7 @@
       <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>92.719994694302429</v>
       </c>
       <c r="D9">
@@ -2868,7 +2963,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>92.918883381344131</v>
       </c>
       <c r="D10">
@@ -2930,7 +3025,7 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14">
         <v>88.441474407218038</v>
       </c>
       <c r="D14">
@@ -2954,7 +3049,7 @@
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15">
         <v>89.031900506636475</v>
       </c>
       <c r="D15">
@@ -2978,7 +3073,7 @@
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16">
         <v>89.075995467088831</v>
       </c>
       <c r="D16">
@@ -3002,7 +3097,7 @@
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17">
         <v>88.779891406211689</v>
       </c>
       <c r="D17">
@@ -3026,7 +3121,7 @@
       <c r="B18">
         <v>1E-3</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18">
         <v>88.60604330487287</v>
       </c>
       <c r="D18">
@@ -3050,7 +3145,7 @@
       <c r="B19">
         <v>0.01</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19">
         <v>88.842648581158443</v>
       </c>
       <c r="D19">
@@ -3074,7 +3169,7 @@
       <c r="B20">
         <v>0.1</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20">
         <v>89.203476385320528</v>
       </c>
       <c r="D20">
@@ -3098,7 +3193,7 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>88.651937588848796</v>
       </c>
       <c r="D21">
@@ -3160,7 +3255,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25">
         <v>86.615305207369161</v>
       </c>
       <c r="D25">
@@ -3184,7 +3279,7 @@
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26">
         <v>86.567830748247559</v>
       </c>
       <c r="D26">
@@ -3208,7 +3303,7 @@
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27">
         <v>87.243672811471839</v>
       </c>
       <c r="D27">
@@ -3232,7 +3327,7 @@
       <c r="B28" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28">
         <v>86.707964601769916</v>
       </c>
       <c r="D28">
@@ -3256,7 +3351,7 @@
       <c r="B29">
         <v>1E-3</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29">
         <v>86.777065545549704</v>
       </c>
       <c r="D29">
@@ -3280,7 +3375,7 @@
       <c r="B30">
         <v>0.01</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30">
         <v>87.415225621905606</v>
       </c>
       <c r="D30">
@@ -3304,7 +3399,7 @@
       <c r="B31">
         <v>0.1</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31">
         <v>86.98288047474459</v>
       </c>
       <c r="D31">
@@ -3328,7 +3423,7 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>86.689331222588422</v>
       </c>
       <c r="D32">
@@ -3360,6 +3455,42 @@
     <mergeCell ref="A14:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3:H10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:H21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:H32">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D3:H10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -3458,42 +3589,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:H32">
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:H10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:H21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:H32">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/pcc/summary_selection_rate.xlsx
+++ b/results_cnn_subnetwork_evaluation/parameter_optimization_sigma_lambda/pcc/summary_selection_rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\parameter_optimization_sigma_lambda\pcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\parameter_optimization_sigma_lambda\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDA1D4F-27BA-4B2E-9C44-D6753CC8B9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06199467-A083-4621-8D4E-A41D097BAE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" tabRatio="596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,29 +116,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,13 +398,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68875796-7DD7-46D9-A668-8734DDD9E17C}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -440,7 +417,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2">
@@ -459,7 +436,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -482,7 +459,7 @@
         <v>52.115923724830367</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
@@ -503,7 +480,7 @@
         <v>86.922776148582614</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -524,7 +501,7 @@
         <v>87.362283987462419</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>1E-4</v>
@@ -545,7 +522,7 @@
         <v>88.692203219751036</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7">
         <v>1E-3</v>
@@ -566,7 +543,7 @@
         <v>84.276190393803844</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8">
         <v>0.01</v>
@@ -587,7 +564,7 @@
         <v>86.685230841097251</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9">
         <v>0.1</v>
@@ -608,7 +585,7 @@
         <v>79.89448582311843</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10">
         <v>1</v>
@@ -629,7 +606,7 @@
         <v>78.769372284073967</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -642,7 +619,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13">
@@ -661,7 +638,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
@@ -684,7 +661,7 @@
         <v>52.57258857487232</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
@@ -705,7 +682,7 @@
         <v>86.396820041695875</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
@@ -726,7 +703,7 @@
         <v>88.343307468057688</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3">
         <v>1E-4</v>
@@ -747,7 +724,7 @@
         <v>89.263586478545065</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18">
         <v>1E-3</v>
@@ -768,7 +745,7 @@
         <v>84.263589362076374</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19">
         <v>0.01</v>
@@ -789,7 +766,7 @@
         <v>85.064403671312036</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20">
         <v>0.1</v>
@@ -810,7 +787,7 @@
         <v>78.547403812605069</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21">
         <v>1</v>
@@ -831,7 +808,7 @@
         <v>75.706831373973827</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -844,7 +821,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24">
@@ -863,7 +840,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
@@ -886,7 +863,7 @@
         <v>52.878836898819777</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
@@ -907,7 +884,7 @@
         <v>87.630498533724349</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
@@ -928,7 +905,7 @@
         <v>86.740300521630815</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3">
         <v>1E-4</v>
@@ -949,7 +926,7 @@
         <v>89.714334322384559</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29">
         <v>1E-3</v>
@@ -970,7 +947,7 @@
         <v>82.074412408411817</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30">
         <v>0.01</v>
@@ -991,7 +968,7 @@
         <v>84.55933009801123</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31">
         <v>0.1</v>
@@ -1012,7 +989,7 @@
         <v>76.780577686658191</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32">
         <v>1</v>
@@ -1033,7 +1010,7 @@
         <v>75.234791535105543</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1023,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35">
@@ -1065,7 +1042,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
@@ -1088,7 +1065,7 @@
         <v>51.971718325129693</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="2">
         <v>9.9999999999999995E-7</v>
@@ -1109,7 +1086,7 @@
         <v>85.962865884076294</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="2">
         <v>1.0000000000000001E-5</v>
@@ -1130,7 +1107,7 @@
         <v>85.725493588468183</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3">
         <v>1E-4</v>
@@ -1151,7 +1128,7 @@
         <v>88.643932905994006</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40">
         <v>1E-3</v>
@@ -1172,7 +1149,7 @@
         <v>78.816483418253327</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41">
         <v>0.01</v>
@@ -1193,7 +1170,7 @@
         <v>81.935114778962927</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42">
         <v>0.1</v>
@@ -1214,7 +1191,7 @@
         <v>74.120877631582744</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43">
         <v>1</v>
@@ -1235,7 +1212,7 @@
         <v>73.422688200878326</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
@@ -1248,7 +1225,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46">
@@ -1267,7 +1244,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1267,7 @@
         <v>51.934716851645199</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="2">
         <v>9.9999999999999995E-7</v>
@@ -1311,7 +1288,7 @@
         <v>84.327499949538193</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="2">
         <v>1.0000000000000001E-5</v>
@@ -1332,7 +1309,7 @@
         <v>82.296715369510125</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="3">
         <v>1E-4</v>
@@ -1353,7 +1330,7 @@
         <v>86.161085591859219</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51">
         <v>1E-3</v>
@@ -1374,7 +1351,7 @@
         <v>73.513352191627959</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52">
         <v>0.01</v>
@@ -1395,7 +1372,7 @@
         <v>78.484127602026533</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53">
         <v>0.1</v>
@@ -1416,7 +1393,7 @@
         <v>69.880910157815677</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54">
         <v>1</v>
@@ -1437,7 +1414,7 @@
         <v>69.947513963500271</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1427,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57">
@@ -1469,7 +1446,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1469,7 @@
         <v>49.007534667254909</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="2">
         <v>9.9999999999999995E-7</v>
@@ -1513,7 +1490,7 @@
         <v>73.126468798749698</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="2">
         <v>1.0000000000000001E-5</v>
@@ -1534,7 +1511,7 @@
         <v>71.616922868421597</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="3">
         <v>1E-4</v>
@@ -1555,7 +1532,7 @@
         <v>77.69327877692136</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62">
         <v>1E-3</v>
@@ -1576,7 +1553,7 @@
         <v>69.114784729971703</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63">
         <v>0.01</v>
@@ -1597,7 +1574,7 @@
         <v>72.311040752947704</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64">
         <v>0.1</v>
@@ -1618,7 +1595,7 @@
         <v>63.899312854494127</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65">
         <v>1</v>
@@ -1641,6 +1618,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="C23:G23"/>
@@ -1653,12 +1636,6 @@
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="A56:B57"/>
     <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:G10">
@@ -1889,9 +1866,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1905,7 +1882,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="1">
@@ -1927,14 +1904,14 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3">
         <v>83.724709267957905</v>
       </c>
       <c r="D3">
@@ -1953,12 +1930,12 @@
         <v>51.971718325129693</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4">
         <v>83.591063359832987</v>
       </c>
       <c r="D4">
@@ -1977,12 +1954,12 @@
         <v>85.962865884076294</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5">
         <v>83.678272880099897</v>
       </c>
       <c r="D5">
@@ -2001,12 +1978,12 @@
         <v>85.725493588468183</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6">
         <v>83.664057070851243</v>
       </c>
       <c r="D6">
@@ -2025,12 +2002,12 @@
         <v>88.643932905994006</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7">
         <v>1E-3</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7">
         <v>84.371681415929217</v>
       </c>
       <c r="D7">
@@ -2049,12 +2026,12 @@
         <v>78.816483418253327</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8">
         <v>0.01</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <v>83.559869318362047</v>
       </c>
       <c r="D8">
@@ -2073,12 +2050,12 @@
         <v>81.935114778962927</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>84.251017165661764</v>
       </c>
       <c r="D9">
@@ -2097,12 +2074,12 @@
         <v>74.120877631582744</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>83.658705236781159</v>
       </c>
       <c r="D10">
@@ -2121,7 +2098,7 @@
         <v>73.422688200878326</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -2135,7 +2112,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1">
@@ -2157,14 +2134,14 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14">
         <v>75.658682168530873</v>
       </c>
       <c r="D14">
@@ -2183,12 +2160,12 @@
         <v>51.934716851645199</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15">
         <v>76.465240472091736</v>
       </c>
       <c r="D15">
@@ -2207,12 +2184,12 @@
         <v>84.327499949538193</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16">
         <v>74.745744628702099</v>
       </c>
       <c r="D16">
@@ -2231,12 +2208,12 @@
         <v>82.296715369510125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17">
         <v>74.646868340844932</v>
       </c>
       <c r="D17">
@@ -2255,12 +2232,12 @@
         <v>86.161085591859219</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18">
         <v>1E-3</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18">
         <v>74.376664157994441</v>
       </c>
       <c r="D18">
@@ -2279,12 +2256,12 @@
         <v>73.513352191627959</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19">
         <v>0.01</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19">
         <v>76.341023711277771</v>
       </c>
       <c r="D19">
@@ -2303,12 +2280,12 @@
         <v>78.484127602026533</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20">
         <v>0.1</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20">
         <v>75.278598142429146</v>
       </c>
       <c r="D20">
@@ -2327,12 +2304,12 @@
         <v>69.880910157815677</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>75.957577487694536</v>
       </c>
       <c r="D21">
@@ -2351,7 +2328,7 @@
         <v>69.947513963500271</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -2365,7 +2342,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="1">
@@ -2387,14 +2364,14 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25">
         <v>59.845759911417908</v>
       </c>
       <c r="D25">
@@ -2413,12 +2390,12 @@
         <v>49.007534667254909</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26">
         <v>60.431382047710912</v>
       </c>
       <c r="D26">
@@ -2437,12 +2414,12 @@
         <v>73.126468798749698</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27">
         <v>60.363728636637568</v>
       </c>
       <c r="D27">
@@ -2461,12 +2438,12 @@
         <v>71.616922868421597</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28">
         <v>60.048668241074758</v>
       </c>
       <c r="D28">
@@ -2485,12 +2462,12 @@
         <v>77.69327877692136</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29">
         <v>1E-3</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29">
         <v>60.20028431618497</v>
       </c>
       <c r="D29">
@@ -2509,12 +2486,12 @@
         <v>69.114784729971703</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30">
         <v>0.01</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30">
         <v>59.950708916167088</v>
       </c>
       <c r="D30">
@@ -2533,12 +2510,12 @@
         <v>72.311040752947704</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31">
         <v>0.1</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31">
         <v>60.604987932421558</v>
       </c>
       <c r="D31">
@@ -2557,12 +2534,12 @@
         <v>63.899312854494127</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>59.704680259633157</v>
       </c>
       <c r="D32">
@@ -2594,6 +2571,42 @@
     <mergeCell ref="A14:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3:H10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:H21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:H32">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D3:H10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -2692,42 +2705,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:H32">
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:H32">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:H21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:H10">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2746,13 +2723,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D797DD3D-0D28-4952-8A5D-62303F7013D2}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2766,7 +2743,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="1">
@@ -2788,7 +2765,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2814,7 +2791,7 @@
         <v>52.115923724830367</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>9.9999999999999995E-7</v>
@@ -2838,7 +2815,7 @@
         <v>86.922776148582614</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2862,7 +2839,7 @@
         <v>87.362283987462419</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>1E-4</v>
@@ -2886,7 +2863,7 @@
         <v>88.692203219751036</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7">
         <v>1E-3</v>
@@ -2910,7 +2887,7 @@
         <v>84.276190393803844</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8">
         <v>0.01</v>
@@ -2934,7 +2911,7 @@
         <v>86.685230841097251</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9">
         <v>0.1</v>
@@ -2958,7 +2935,7 @@
         <v>79.89448582311843</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10">
         <v>1</v>
@@ -2982,7 +2959,7 @@
         <v>78.769372284073967</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -2996,7 +2973,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1">
@@ -3018,7 +2995,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
@@ -3044,7 +3021,7 @@
         <v>52.57258857487232</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>9.9999999999999995E-7</v>
@@ -3068,7 +3045,7 @@
         <v>86.396820041695875</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>1.0000000000000001E-5</v>
@@ -3092,7 +3069,7 @@
         <v>88.343307468057688</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3">
         <v>1E-4</v>
@@ -3116,7 +3093,7 @@
         <v>89.263586478545065</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18">
         <v>1E-3</v>
@@ -3140,7 +3117,7 @@
         <v>84.263589362076374</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19">
         <v>0.01</v>
@@ -3164,7 +3141,7 @@
         <v>85.064403671312036</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20">
         <v>0.1</v>
@@ -3188,7 +3165,7 @@
         <v>78.547403812605069</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21">
         <v>1</v>
@@ -3212,7 +3189,7 @@
         <v>75.706831373973827</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -3226,7 +3203,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="1">
@@ -3248,7 +3225,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
@@ -3274,7 +3251,7 @@
         <v>52.878836898819777</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>9.9999999999999995E-7</v>
@@ -3298,7 +3275,7 @@
         <v>87.630498533724349</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>1.0000000000000001E-5</v>
@@ -3322,7 +3299,7 @@
         <v>86.740300521630815</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3">
         <v>1E-4</v>
@@ -3346,7 +3323,7 @@
         <v>89.714334322384559</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29">
         <v>1E-3</v>
@@ -3370,7 +3347,7 @@
         <v>82.074412408411817</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30">
         <v>0.01</v>
@@ -3394,7 +3371,7 @@
         <v>84.55933009801123</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31">
         <v>0.1</v>
@@ -3418,7 +3395,7 @@
         <v>76.780577686658191</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32">
         <v>1</v>
